--- a/SQL/사용자 샘플.xlsx
+++ b/SQL/사용자 샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdal\Desktop\학교\3-1\데이터베이스\기말 프로젝트\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6FF708-3F6A-49E9-9C35-0284B0368087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF135B-5388-466A-BBD7-FA4B133FB430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="888" windowWidth="13380" windowHeight="9744" xr2:uid="{D06B8F0A-223F-4711-9315-85798CD6086B}"/>
+    <workbookView xWindow="14760" yWindow="4248" windowWidth="13380" windowHeight="9744" xr2:uid="{D06B8F0A-223F-4711-9315-85798CD6086B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,19 +62,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kimpasss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leepasss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parkpasss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kangpasss</t>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kang12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D84204A-80CB-41F4-A58D-93F3EA60B846}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -477,34 +485,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
